--- a/GIT_notes.xlsx
+++ b/GIT_notes.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="45">
   <si>
     <t>http://openclassrooms.com/courses/gerer-son-code-avec-git-et-github</t>
   </si>
@@ -39,48 +39,44 @@
     <t>Web Repository</t>
   </si>
   <si>
-    <t>&gt;&gt; origin = 1 seul remote par defaut (github)</t>
-  </si>
-  <si>
-    <t>&gt;&gt; master = branche principale</t>
-  </si>
-  <si>
-    <t>git pull origin master</t>
-  </si>
-  <si>
-    <t>&gt;&gt; récupérer les derniers commit de la branche</t>
-  </si>
-  <si>
-    <t>git branch &gt;&gt; Afficher les branches</t>
-  </si>
-  <si>
-    <t>git branch nvellebranche &gt;&gt; Créer une nouvelle branche</t>
-  </si>
-  <si>
-    <t>git checkout nvellebranche &gt;&gt; Se placer dans une branche</t>
-  </si>
-  <si>
-    <t>git checkout -b nvellevranche &gt;&gt; Créer et se placer dans une branche</t>
-  </si>
-  <si>
-    <t>git merge autrebranche &gt;&gt; Merger la branche courante avec une autre branche</t>
-  </si>
-  <si>
-    <t>git blame monfichier &gt;&gt; Afficher l'historique ligne par ligne d'un fichier</t>
-  </si>
-  <si>
-    <t>Compléter le fichier .gitignore pour "ignorer" des fichiers lors des commits</t>
-  </si>
-  <si>
-    <t>git stash &gt;&gt; Mettre de côté les modifications en cours</t>
-  </si>
-  <si>
-    <t>git stash pop &gt;&gt; Reprendre le travail</t>
-  </si>
-  <si>
-    <r>
-      <rPr>
-        <sz val="11"/>
+    <t>Status du repository local vis-à-vis du repository partagé</t>
+  </si>
+  <si>
+    <t>Initialiser le repository local</t>
+  </si>
+  <si>
+    <t>Ajouter un fichier à l'index</t>
+  </si>
+  <si>
+    <t>Commiter les changements (-a pour l'ajout à l'index)</t>
+  </si>
+  <si>
+    <t>Afficher l'historique</t>
+  </si>
+  <si>
+    <t>Se positionner sur un commit de l'historique</t>
+  </si>
+  <si>
+    <t>Retour au dernier commit</t>
+  </si>
+  <si>
+    <t>Cloner le repository distant</t>
+  </si>
+  <si>
+    <t>Pousser les modifications sur le repository distant 
+=&gt; origin: repo distant par défaut
+=&gt; master: branche principale</t>
+  </si>
+  <si>
+    <t>Charger les derniers commit d'une branche</t>
+  </si>
+  <si>
+    <t>Afficher les branches</t>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -91,7 +87,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -102,8 +98,24 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>log</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -114,7 +126,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -125,12 +137,44 @@
   </si>
   <si>
     <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+      <rPr>
+        <sz val="9"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>clone</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> https://github....</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -140,7 +184,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -150,7 +194,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -166,7 +210,7 @@
     <r>
       <rPr>
         <b/>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -176,7 +220,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -186,7 +230,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -196,47 +240,13 @@
     </r>
   </si>
   <si>
-    <t>Status du repository local vis-à-vis du repository partagé</t>
-  </si>
-  <si>
-    <t>Initialiser le repository local</t>
-  </si>
-  <si>
-    <t>Ajouter un fichier à l'index</t>
-  </si>
-  <si>
-    <t>Commiter les changements (-a pour l'ajout à l'index)</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>log</t>
-    </r>
-  </si>
-  <si>
-    <t>Afficher l'historique</t>
-  </si>
-  <si>
-    <t>Se positionner sur un commit de l'historique</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -246,7 +256,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -256,7 +266,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -266,16 +276,13 @@
     </r>
   </si>
   <si>
-    <t>Retour au dernier commit</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
         <color theme="3"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -285,7 +292,7 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -296,57 +303,112 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <sz val="11"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>clone</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>push</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve"> https://github....</t>
-    </r>
-  </si>
-  <si>
-    <t>Cloner le repository distant</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">git </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color theme="3"/>
-        <rFont val="Calibri"/>
-        <family val="2"/>
-        <scheme val="minor"/>
-      </rPr>
-      <t>push</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="11"/>
+      <t xml:space="preserve">origin master </t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>pull</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> origin master</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>git</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> branch</t>
+    </r>
+  </si>
+  <si>
+    <t>Créer une nouvelle branche</t>
+  </si>
+  <si>
+    <t>Se placer dans une branche</t>
+  </si>
+  <si>
+    <t>Créer et se placer dans une branche</t>
+  </si>
+  <si>
+    <t>Merger la branche courante avec une autre branche</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>branch</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
         <color theme="1"/>
         <rFont val="Calibri"/>
         <family val="2"/>
@@ -356,38 +418,216 @@
     </r>
     <r>
       <rPr>
-        <sz val="11"/>
+        <sz val="9"/>
         <color theme="9" tint="-0.249977111117893"/>
         <rFont val="Calibri"/>
         <family val="2"/>
         <scheme val="minor"/>
       </rPr>
-      <t xml:space="preserve">origin master </t>
-    </r>
+      <t>branchname</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkout</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>branchname</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>checkout -b</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>branchname</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>merge</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> branchname</t>
+    </r>
+  </si>
+  <si>
+    <t>Afficher l'historique ligne par ligne d'un fichier</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>blame</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> </t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="9"/>
+        <color theme="9" tint="-0.249977111117893"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>filename</t>
+    </r>
+  </si>
+  <si>
+    <t>Fichier à compléter pour ignorer certains types de fichiers lors des commits</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Fichier </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>.gitignore</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stash</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">git </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="9"/>
+        <color theme="3"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>stash pop</t>
+    </r>
+  </si>
+  <si>
+    <t>Mettre de côté les modifications en cours</t>
+  </si>
+  <si>
+    <t>Reprendre le travail</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -403,13 +643,36 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <b/>
+      <sz val="9"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
+      <sz val="9"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
       <color theme="9" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -424,7 +687,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -432,15 +695,102 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="21">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -742,179 +1092,209 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:B36"/>
+  <dimension ref="A1:B27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="76.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="65.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="22" style="2" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="61" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.35">
-      <c r="A1" s="2" t="s">
+    <row r="1" spans="1:2" ht="21" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>5</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="4" t="s">
         <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="4" t="s">
         <v>2</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="4" t="s">
         <v>3</v>
       </c>
     </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A6" s="5"/>
+      <c r="B6" s="4"/>
+    </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="6" t="s">
+        <v>18</v>
+      </c>
+      <c r="B7" s="7" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="B8" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A9" s="8" t="s">
+        <v>38</v>
+      </c>
+      <c r="B9" s="9" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A10" s="10" t="s">
         <v>20</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B10" s="9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A11" s="11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" s="12" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A12" s="13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" s="7" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A13" s="14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B13" s="12" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A14" s="13" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B8" t="s">
+      <c r="B14" s="7" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A15" s="14" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A9" s="3" t="s">
+      <c r="B15" s="12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" ht="36.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="13" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="15" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A17" s="14" t="s">
+        <v>27</v>
+      </c>
+      <c r="B17" s="12" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A18" s="13" t="s">
+        <v>28</v>
+      </c>
+      <c r="B18" s="16" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="9" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
         <v>34</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B20" s="9" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>22</v>
-      </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>23</v>
-      </c>
-      <c r="B11" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>28</v>
-      </c>
-      <c r="B12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
+      <c r="B21" s="9" t="s">
         <v>31</v>
       </c>
-      <c r="B14" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>33</v>
-      </c>
-      <c r="B15" t="s">
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A22" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="B22" s="12" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B18" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B19" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="B22" t="s">
-        <v>10</v>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A23" s="13" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A24" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="12" t="s">
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>11</v>
-      </c>
+      <c r="A25" s="19"/>
+      <c r="B25" s="20"/>
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>12</v>
-      </c>
+      <c r="A26" s="5"/>
+      <c r="B26" s="4"/>
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>19</v>
+      <c r="A27" s="17" t="s">
+        <v>40</v>
+      </c>
+      <c r="B27" s="18" t="s">
+        <v>39</v>
       </c>
     </row>
   </sheetData>
